--- a/Modélisation/3.Dictionnaire de données/إمتحان الحزام.xlsx
+++ b/Modélisation/3.Dictionnaire de données/إمتحان الحزام.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
